--- a/src/experiment/results/wilcoxon/ionosphere/both/MILP1_auc_folds.xlsx
+++ b/src/experiment/results/wilcoxon/ionosphere/both/MILP1_auc_folds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>Best_B</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_cpu_threads</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -498,6 +503,9 @@
       <c r="G2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -527,6 +535,9 @@
       <c r="G3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -556,6 +567,9 @@
       <c r="G4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -585,6 +599,9 @@
       <c r="G5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -614,6 +631,9 @@
       <c r="G6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -643,6 +663,9 @@
       <c r="G7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -672,6 +695,9 @@
       <c r="G8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -701,6 +727,9 @@
       <c r="G9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -730,6 +759,9 @@
       <c r="G10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -758,6 +790,9 @@
       </c>
       <c r="G11" t="n">
         <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
